--- a/medicine/Psychotrope/Brauerei_Fässla/Brauerei_Fässla.xlsx
+++ b/medicine/Psychotrope/Brauerei_Fässla/Brauerei_Fässla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brauerei_F%C3%A4ssla</t>
+          <t>Brauerei_Fässla</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brauerei Fässla est une brasserie allemande située à Bamberg.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brauerei_F%C3%A4ssla</t>
+          <t>Brauerei_Fässla</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie Fässla aurait été créée en 1649 : juste après la guerre de Trente Ans, le brasseur et tonnelier Hanß Lauer fonde une brasserie vers le Saint-Sépulcre. La maison est beaucoup plus ancienne, elle serait du XIVe siècle.
 Un acte notarié mentionne l'acquisition le 20 janvier 1898 de la brasserie Fässla par le maître brasseur Paul Lutz. Depuis octobre 1986, elle appartient à la famille Kalb.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brauerei_F%C3%A4ssla</t>
+          <t>Brauerei_Fässla</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie produit six sortes de bière : la Zwergla (6 % d'alcool), la Lagerbier (5,5 %) et la Gold-Pils (5,5 %) (produites avec la levure Saccharomyces carlsbergensis), les helles et dunkles Weizenbier (5 %).
 En octobre, elle produit une starkbier, la Bambergator, avec 8,5 % d'alcool et une densité primitive de moût de 21 %.
